--- a/MCP1_pg_mL/OUTPUT/20200714.AEDB.CEA.Bin.Uni.Protein.PlaquePhenotypes.RANK.MODEL1.xlsx
+++ b/MCP1_pg_mL/OUTPUT/20200714.AEDB.CEA.Bin.Uni.Protein.PlaquePhenotypes.RANK.MODEL1.xlsx
@@ -416,7 +416,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -479,34 +479,34 @@
         <v>18</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.340450608059776</v>
+        <v>-0.340450608059753</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0689965817762236</v>
+        <v>0.068996581776224</v>
       </c>
       <c r="F2" t="n">
-        <v>0.711449665569247</v>
+        <v>0.711449665569264</v>
       </c>
       <c r="G2" t="n">
-        <v>0.621459889491844</v>
+        <v>0.621459889491858</v>
       </c>
       <c r="H2" t="n">
-        <v>0.814470306446442</v>
+        <v>0.814470306446461</v>
       </c>
       <c r="I2" t="n">
-        <v>-4.93431122666276</v>
+        <v>-4.93431122666241</v>
       </c>
       <c r="J2" t="n">
-        <v>0.000000804340959094879</v>
+        <v>0.000000804340959096343</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0761602133156758</v>
+        <v>0.0761602133156772</v>
       </c>
       <c r="L2" t="n">
-        <v>0.100162119012343</v>
+        <v>0.100162119012345</v>
       </c>
       <c r="M2" t="n">
-        <v>0.133572771629956</v>
+        <v>0.133572771629959</v>
       </c>
       <c r="N2" t="n">
         <v>2423</v>
@@ -529,25 +529,25 @@
         <v>19</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.304533167437726</v>
+        <v>-0.304533167437716</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0799245233261556</v>
+        <v>0.0799245233261538</v>
       </c>
       <c r="F3" t="n">
-        <v>0.737467567919329</v>
+        <v>0.737467567919337</v>
       </c>
       <c r="G3" t="n">
-        <v>0.630535870430251</v>
+        <v>0.630535870430259</v>
       </c>
       <c r="H3" t="n">
-        <v>0.862533662615808</v>
+        <v>0.862533662615814</v>
       </c>
       <c r="I3" t="n">
-        <v>-3.81025941431003</v>
+        <v>-3.81025941430999</v>
       </c>
       <c r="J3" t="n">
-        <v>0.000138821048554061</v>
+        <v>0.000138821048554083</v>
       </c>
       <c r="K3" t="n">
         <v>0.0133205669523144</v>
@@ -579,34 +579,34 @@
         <v>20</v>
       </c>
       <c r="D4" t="n">
-        <v>0.448516293664955</v>
+        <v>0.448516293664957</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0798479021045649</v>
+        <v>0.0798479021045567</v>
       </c>
       <c r="F4" t="n">
         <v>1.56598699614087</v>
       </c>
       <c r="G4" t="n">
-        <v>1.33912230828034</v>
+        <v>1.33912230828036</v>
       </c>
       <c r="H4" t="n">
-        <v>1.83128550463138</v>
+        <v>1.83128550463135</v>
       </c>
       <c r="I4" t="n">
-        <v>5.617133097343</v>
+        <v>5.61713309734361</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0000000194151867555145</v>
+        <v>0.0000000194151867554466</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0949878887090504</v>
+        <v>0.0949878887090523</v>
       </c>
       <c r="L4" t="n">
-        <v>0.105714344413341</v>
+        <v>0.105714344413342</v>
       </c>
       <c r="M4" t="n">
-        <v>0.152861709306008</v>
+        <v>0.152861709306011</v>
       </c>
       <c r="N4" t="n">
         <v>2423</v>
@@ -629,31 +629,31 @@
         <v>21</v>
       </c>
       <c r="D5" t="n">
-        <v>0.181469128302688</v>
+        <v>0.181469128302689</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0697387908803783</v>
+        <v>0.0697387908803773</v>
       </c>
       <c r="F5" t="n">
         <v>1.19897752166723</v>
       </c>
       <c r="G5" t="n">
-        <v>1.04579890756338</v>
+        <v>1.04579890756339</v>
       </c>
       <c r="H5" t="n">
         <v>1.37459227301416</v>
       </c>
       <c r="I5" t="n">
-        <v>2.60212610531145</v>
+        <v>2.60212610531149</v>
       </c>
       <c r="J5" t="n">
-        <v>0.00926477778944713</v>
+        <v>0.00926477778944605</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0611863643649038</v>
+        <v>0.0611863643649037</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0786280924434182</v>
+        <v>0.0786280924434181</v>
       </c>
       <c r="M5" t="n">
         <v>0.106580589809122</v>
@@ -679,34 +679,34 @@
         <v>22</v>
       </c>
       <c r="D6" t="n">
-        <v>0.221791838059506</v>
+        <v>0.221791838059527</v>
       </c>
       <c r="E6" t="n">
         <v>0.0669568682569691</v>
       </c>
       <c r="F6" t="n">
-        <v>1.24831149987271</v>
+        <v>1.24831149987274</v>
       </c>
       <c r="G6" t="n">
-        <v>1.09478322570304</v>
+        <v>1.09478322570306</v>
       </c>
       <c r="H6" t="n">
-        <v>1.42337000068099</v>
+        <v>1.42337000068102</v>
       </c>
       <c r="I6" t="n">
-        <v>3.3124583606316</v>
+        <v>3.31245836063192</v>
       </c>
       <c r="J6" t="n">
-        <v>0.000924798915416801</v>
+        <v>0.000924798915415745</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0362919739337814</v>
+        <v>0.0362919739337808</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0490378513963894</v>
+        <v>0.0490378513963886</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0654020347413408</v>
+        <v>0.0654020347413397</v>
       </c>
       <c r="N6" t="n">
         <v>2423</v>
@@ -729,25 +729,25 @@
         <v>23</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.28715913821257</v>
+        <v>-0.28715913821255</v>
       </c>
       <c r="E7" t="n">
-        <v>0.071979363430671</v>
+        <v>0.0719793634306713</v>
       </c>
       <c r="F7" t="n">
-        <v>0.750392303244867</v>
+        <v>0.750392303244883</v>
       </c>
       <c r="G7" t="n">
-        <v>0.651655852148721</v>
+        <v>0.651655852148734</v>
       </c>
       <c r="H7" t="n">
-        <v>0.864088931162747</v>
+        <v>0.864088931162765</v>
       </c>
       <c r="I7" t="n">
-        <v>-3.98946482055452</v>
+        <v>-3.98946482055422</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0000662225394534008</v>
+        <v>0.0000662225394534842</v>
       </c>
       <c r="K7" t="n">
         <v>0.0305540108632004</v>
@@ -779,16 +779,16 @@
         <v>18</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.091864241717975</v>
+        <v>-0.0918642417179719</v>
       </c>
       <c r="E8" t="n">
-        <v>0.09068313344468</v>
+        <v>0.0906831334446776</v>
       </c>
       <c r="F8" t="n">
-        <v>0.91222898377879</v>
+        <v>0.912228983778793</v>
       </c>
       <c r="G8" t="n">
-        <v>0.763682476202051</v>
+        <v>0.763682476202057</v>
       </c>
       <c r="H8" t="n">
         <v>1.08966978394554</v>
@@ -797,7 +797,7 @@
         <v>-1.01302456397821</v>
       </c>
       <c r="J8" t="n">
-        <v>0.311048428076998</v>
+        <v>0.311048428077001</v>
       </c>
       <c r="K8" t="n">
         <v>0.0151668506456152</v>
@@ -829,34 +829,34 @@
         <v>19</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.486863639644995</v>
+        <v>-0.48686363964492</v>
       </c>
       <c r="E9" t="n">
-        <v>0.12206389486679</v>
+        <v>0.122063894866796</v>
       </c>
       <c r="F9" t="n">
-        <v>0.614550827600387</v>
+        <v>0.614550827600433</v>
       </c>
       <c r="G9" t="n">
-        <v>0.483787811887679</v>
+        <v>0.48378781188771</v>
       </c>
       <c r="H9" t="n">
-        <v>0.780657781002562</v>
+        <v>0.78065778100263</v>
       </c>
       <c r="I9" t="n">
-        <v>-3.98859662946455</v>
+        <v>-3.98859662946375</v>
       </c>
       <c r="J9" t="n">
-        <v>0.0000664653285551124</v>
+        <v>0.0000664653285553361</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0786999307825783</v>
+        <v>0.0786999307825773</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0735768677357161</v>
+        <v>0.0735768677357153</v>
       </c>
       <c r="M9" t="n">
-        <v>0.118418823603704</v>
+        <v>0.118418823603703</v>
       </c>
       <c r="N9" t="n">
         <v>2423</v>
@@ -879,34 +879,34 @@
         <v>20</v>
       </c>
       <c r="D10" t="n">
-        <v>0.695327849933325</v>
+        <v>0.695327849933334</v>
       </c>
       <c r="E10" t="n">
-        <v>0.123786287545618</v>
+        <v>0.123786287545619</v>
       </c>
       <c r="F10" t="n">
-        <v>2.00436609752415</v>
+        <v>2.00436609752417</v>
       </c>
       <c r="G10" t="n">
-        <v>1.57256292760073</v>
+        <v>1.57256292760074</v>
       </c>
       <c r="H10" t="n">
-        <v>2.5547362095288</v>
+        <v>2.55473620952883</v>
       </c>
       <c r="I10" t="n">
-        <v>5.61716377249846</v>
+        <v>5.61716377249849</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0000000194117415140441</v>
+        <v>0.0000000194117415140408</v>
       </c>
       <c r="K10" t="n">
-        <v>0.080101530294842</v>
+        <v>0.0801015302948408</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0746898729890038</v>
+        <v>0.0746898729890028</v>
       </c>
       <c r="M10" t="n">
-        <v>0.120355856071169</v>
+        <v>0.120355856071168</v>
       </c>
       <c r="N10" t="n">
         <v>2423</v>
@@ -929,25 +929,25 @@
         <v>21</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0640532951879495</v>
+        <v>0.0640532951879436</v>
       </c>
       <c r="E11" t="n">
         <v>0.104479836549387</v>
       </c>
       <c r="F11" t="n">
-        <v>1.06614921787035</v>
+        <v>1.06614921787034</v>
       </c>
       <c r="G11" t="n">
-        <v>0.868726281410949</v>
+        <v>0.868726281410944</v>
       </c>
       <c r="H11" t="n">
-        <v>1.3084376276949</v>
+        <v>1.30843762769489</v>
       </c>
       <c r="I11" t="n">
-        <v>0.613068485780716</v>
+        <v>0.613068485780661</v>
       </c>
       <c r="J11" t="n">
-        <v>0.53983105682971</v>
+        <v>0.539831056829747</v>
       </c>
       <c r="K11" t="n">
         <v>0.0290894174640227</v>
@@ -979,34 +979,34 @@
         <v>22</v>
       </c>
       <c r="D12" t="n">
-        <v>0.379556990817293</v>
+        <v>0.379556990817284</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0949484442662246</v>
+        <v>0.0949484442662313</v>
       </c>
       <c r="F12" t="n">
-        <v>1.46163692740408</v>
+        <v>1.46163692740407</v>
       </c>
       <c r="G12" t="n">
-        <v>1.21343846967242</v>
+        <v>1.2134384696724</v>
       </c>
       <c r="H12" t="n">
-        <v>1.76060225627095</v>
+        <v>1.76060225627096</v>
       </c>
       <c r="I12" t="n">
-        <v>3.99750615979613</v>
+        <v>3.99750615979576</v>
       </c>
       <c r="J12" t="n">
-        <v>0.0000640133257507259</v>
+        <v>0.0000640133257508272</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0527679688535913</v>
+        <v>0.0527679688535903</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0691100881075262</v>
+        <v>0.0691100881075248</v>
       </c>
       <c r="M12" t="n">
-        <v>0.0930640600199101</v>
+        <v>0.0930640600199084</v>
       </c>
       <c r="N12" t="n">
         <v>2423</v>
@@ -1029,31 +1029,31 @@
         <v>23</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.440852672254043</v>
+        <v>-0.44085267225395</v>
       </c>
       <c r="E13" t="n">
-        <v>0.105405693692872</v>
+        <v>0.105405693692859</v>
       </c>
       <c r="F13" t="n">
-        <v>0.643487503153093</v>
+        <v>0.643487503153153</v>
       </c>
       <c r="G13" t="n">
-        <v>0.523379826979437</v>
+        <v>0.523379826979499</v>
       </c>
       <c r="H13" t="n">
-        <v>0.791158056480595</v>
+        <v>0.791158056480648</v>
       </c>
       <c r="I13" t="n">
-        <v>-4.18243698996553</v>
+        <v>-4.18243698996516</v>
       </c>
       <c r="J13" t="n">
-        <v>0.00002884009613275</v>
+        <v>0.0000288400961327969</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0665964885147823</v>
+        <v>0.0665964885147826</v>
       </c>
       <c r="L13" t="n">
-        <v>0.077195448386266</v>
+        <v>0.0771954483862664</v>
       </c>
       <c r="M13" t="n">
         <v>0.110167710377661</v>
